--- a/public/Sample/customers_sample.xlsx
+++ b/public/Sample/customers_sample.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Company Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>customertype</t>
   </si>
   <si>
-    <t>companyname</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -43,34 +37,21 @@
   </si>
   <si>
     <t>gstno</t>
+  </si>
+  <si>
+    <t>customer_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,18 +78,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,31 +156,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -551,39 +521,36 @@
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
